--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H2">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I2">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J2">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N2">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O2">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P2">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q2">
-        <v>500.7922598443648</v>
+        <v>6.922702326869778</v>
       </c>
       <c r="R2">
-        <v>4507.130338599283</v>
+        <v>62.304320941828</v>
       </c>
       <c r="S2">
-        <v>0.1143241457101304</v>
+        <v>0.002235452344158288</v>
       </c>
       <c r="T2">
-        <v>0.1143241457101304</v>
+        <v>0.002235452344158288</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H3">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I3">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J3">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q3">
-        <v>412.8531872266899</v>
+        <v>187.92683639828</v>
       </c>
       <c r="R3">
-        <v>3715.678685040209</v>
+        <v>1691.34152758452</v>
       </c>
       <c r="S3">
-        <v>0.09424883672935414</v>
+        <v>0.0606846094373008</v>
       </c>
       <c r="T3">
-        <v>0.09424883672935414</v>
+        <v>0.0606846094373008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.66920033333333</v>
+        <v>7.132470666666666</v>
       </c>
       <c r="H4">
-        <v>47.00760099999999</v>
+        <v>21.397412</v>
       </c>
       <c r="I4">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="J4">
-        <v>0.2925937299273087</v>
+        <v>0.1078130252899183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N4">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O4">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P4">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q4">
-        <v>368.0494592535732</v>
+        <v>139.0235957175409</v>
       </c>
       <c r="R4">
-        <v>3312.445133282159</v>
+        <v>1251.212361457868</v>
       </c>
       <c r="S4">
-        <v>0.08402074748782416</v>
+        <v>0.04489296350845924</v>
       </c>
       <c r="T4">
-        <v>0.08402074748782415</v>
+        <v>0.04489296350845923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I5">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J5">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N5">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O5">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P5">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q5">
-        <v>526.6024137014618</v>
+        <v>15.99218237851345</v>
       </c>
       <c r="R5">
-        <v>4739.421723313157</v>
+        <v>143.929641406621</v>
       </c>
       <c r="S5">
-        <v>0.1202162571243057</v>
+        <v>0.0051641338740647</v>
       </c>
       <c r="T5">
-        <v>0.1202162571243057</v>
+        <v>0.005164133874064701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I6">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J6">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q6">
         <v>434.13108055121</v>
@@ -818,10 +818,10 @@
         <v>3907.17972496089</v>
       </c>
       <c r="S6">
-        <v>0.09910629394643064</v>
+        <v>0.1401879346918261</v>
       </c>
       <c r="T6">
-        <v>0.09910629394643061</v>
+        <v>0.1401879346918261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>49.43030900000001</v>
       </c>
       <c r="I7">
-        <v>0.3076736139282969</v>
+        <v>0.2490596131114117</v>
       </c>
       <c r="J7">
-        <v>0.3076736139282968</v>
+        <v>0.2490596131114118</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N7">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O7">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P7">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q7">
-        <v>387.0182292048267</v>
+        <v>321.1593670584613</v>
       </c>
       <c r="R7">
-        <v>3483.16406284344</v>
+        <v>2890.434303526151</v>
       </c>
       <c r="S7">
-        <v>0.0883510628575605</v>
+        <v>0.103707544545521</v>
       </c>
       <c r="T7">
-        <v>0.08835106285756048</v>
+        <v>0.103707544545521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H8">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I8">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J8">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N8">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O8">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P8">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q8">
-        <v>684.1671564659799</v>
+        <v>41.295374753101</v>
       </c>
       <c r="R8">
-        <v>6157.504408193819</v>
+        <v>371.658372777909</v>
       </c>
       <c r="S8">
-        <v>0.1561861713082593</v>
+        <v>0.01333494319644622</v>
       </c>
       <c r="T8">
-        <v>0.1561861713082593</v>
+        <v>0.01333494319644622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H9">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I9">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J9">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O9">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P9">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q9">
-        <v>564.0274696549499</v>
+        <v>1121.02308734409</v>
       </c>
       <c r="R9">
-        <v>5076.247226894549</v>
+        <v>10089.20778609681</v>
       </c>
       <c r="S9">
-        <v>0.1287598946624858</v>
+        <v>0.3619964531382697</v>
       </c>
       <c r="T9">
-        <v>0.1287598946624858</v>
+        <v>0.3619964531382697</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.406785</v>
+        <v>42.546687</v>
       </c>
       <c r="H10">
-        <v>64.220355</v>
+        <v>127.640061</v>
       </c>
       <c r="I10">
-        <v>0.3997326561443945</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="J10">
-        <v>0.3997326561443944</v>
+        <v>0.6431273615986699</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N10">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O10">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P10">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q10">
-        <v>502.8179789651999</v>
+        <v>829.3049756590309</v>
       </c>
       <c r="R10">
-        <v>4525.361810686799</v>
+        <v>7463.744780931277</v>
       </c>
       <c r="S10">
-        <v>0.1147865901736493</v>
+        <v>0.2677959652639539</v>
       </c>
       <c r="T10">
-        <v>0.1147865901736493</v>
+        <v>0.2677959652639539</v>
       </c>
     </row>
   </sheetData>
